--- a/Forms/State forms/Maharashtra/Form II muster roll.xlsx
+++ b/Forms/State forms/Maharashtra/Form II muster roll.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Forms\State forms\Maharashtra\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,19 +94,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Bell MT"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -285,14 +277,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,21 +294,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,21 +310,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 19" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -410,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -675,90 +636,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -768,19 +729,19 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -790,403 +751,283 @@
       <c r="E4" s="4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:39" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:39" s="10" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="40" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="37">
-        <v>6</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37">
-        <v>7</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37">
-        <v>8</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="14">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="I7" s="18">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="J7" s="18">
-        <v>3</v>
-      </c>
-      <c r="K7" s="18">
-        <v>4</v>
-      </c>
-      <c r="L7" s="18">
-        <v>5</v>
-      </c>
-      <c r="M7" s="18">
+      <c r="D7" s="29">
         <v>6</v>
       </c>
-      <c r="N7" s="18">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29">
         <v>7</v>
       </c>
-      <c r="O7" s="18">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29">
         <v>8</v>
       </c>
-      <c r="P7" s="18">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="14">
         <v>9</v>
       </c>
-      <c r="Q7" s="18">
-        <v>10</v>
-      </c>
-      <c r="R7" s="18">
-        <v>11</v>
-      </c>
-      <c r="S7" s="18">
-        <v>12</v>
-      </c>
-      <c r="T7" s="18">
-        <v>13</v>
-      </c>
-      <c r="U7" s="18">
-        <v>14</v>
-      </c>
-      <c r="V7" s="18">
-        <v>15</v>
-      </c>
-      <c r="W7" s="18">
-        <v>16</v>
-      </c>
-      <c r="X7" s="18">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>19</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>20</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>21</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>22</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>23</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>24</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>25</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>26</v>
-      </c>
-      <c r="AH7" s="18">
-        <v>27</v>
-      </c>
-      <c r="AI7" s="18">
-        <v>28</v>
-      </c>
-      <c r="AJ7" s="18">
-        <v>29</v>
-      </c>
-      <c r="AK7" s="18">
-        <v>30</v>
-      </c>
-      <c r="AL7" s="19">
-        <v>31</v>
-      </c>
-      <c r="AM7" s="20"/>
     </row>
-    <row r="8" spans="1:39" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="24"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
+      <c r="J8" s="18">
+        <v>3</v>
+      </c>
+      <c r="K8" s="18">
+        <v>4</v>
+      </c>
+      <c r="L8" s="18">
+        <v>5</v>
+      </c>
+      <c r="M8" s="18">
+        <v>6</v>
+      </c>
+      <c r="N8" s="18">
+        <v>7</v>
+      </c>
+      <c r="O8" s="18">
+        <v>8</v>
+      </c>
+      <c r="P8" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>10</v>
+      </c>
+      <c r="R8" s="18">
+        <v>11</v>
+      </c>
+      <c r="S8" s="18">
+        <v>12</v>
+      </c>
+      <c r="T8" s="18">
+        <v>13</v>
+      </c>
+      <c r="U8" s="18">
+        <v>14</v>
+      </c>
+      <c r="V8" s="18">
+        <v>15</v>
+      </c>
+      <c r="W8" s="18">
+        <v>16</v>
+      </c>
+      <c r="X8" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>18</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>21</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="18">
+        <v>24</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>26</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>27</v>
+      </c>
+      <c r="AI8" s="18">
+        <v>28</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>29</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>30</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AM8" s="20"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="35"/>
-    </row>
-    <row r="10" spans="1:39" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="24"/>
-    </row>
-    <row r="11" spans="1:39" ht="16.05" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="31"/>
+    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:AL7"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:AL6"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:AL5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
